--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H457"/>
+  <dimension ref="A1:H459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,7 +1261,11 @@
           <t>S&amp;P Global Services PMIDEC</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>53.6</t>
@@ -1293,7 +1297,11 @@
           <t>S&amp;P Global Composite PMIDEC</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>53.5</t>
@@ -1325,7 +1333,11 @@
           <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>2.2%</t>
@@ -1361,7 +1373,11 @@
           <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -1397,7 +1413,11 @@
           <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>2.4%</t>
@@ -1433,7 +1453,11 @@
           <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>-0.7%</t>
@@ -13767,10 +13791,14 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="F431" t="inlineStr"/>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -13804,7 +13832,7 @@
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -13835,10 +13863,14 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="F433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -13869,10 +13901,14 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F434" t="inlineStr"/>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -14550,28 +14586,96 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr"/>
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Housing StartsDEC</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>262.4K</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H459"/>
+  <dimension ref="A1:H476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,7 +1493,11 @@
           <t>12-Month BTF Auction</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.435%</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>2.372%</t>
@@ -1521,7 +1525,11 @@
           <t>3-Month BTF Auction</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.704%</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>2.770%</t>
@@ -1549,7 +1557,11 @@
           <t>6-Month BTF Auction</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.592%</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>2.575%</t>
@@ -14654,28 +14666,550 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr"/>
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Export Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Import Prices MoMDEC</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/11</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-16.4</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMDEC</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJAN/04</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Export Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Import Prices YoYDEC</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Philly Fed Business ConditionsJAN</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexJAN</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Philly Fed New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidJAN</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:H479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,7 +1613,11 @@
           <t>S&amp;P Global Composite PMIDEC</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>51.5</t>
@@ -1645,7 +1649,11 @@
           <t>S&amp;P Global Services PMIDEC</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>51.2</t>
@@ -1677,7 +1685,11 @@
           <t>S&amp;P Global Composite PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>54.9</t>
@@ -1713,7 +1725,11 @@
           <t>S&amp;P Global Services PMI FinalDEC</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>56.1</t>
@@ -1749,10 +1765,14 @@
           <t>Factory Orders MoMNOV</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1785,10 +1805,14 @@
           <t>Factory Orders ex TransportationNOV</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2130,50 +2154,46 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+          <t>12:00 AM</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MAS 12-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2188,13 +2208,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2206,29 +2226,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Halifax House Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2244,23 +2272,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMDEC</t>
+          <t>Halifax House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2270,33 +2294,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2312,27 +2340,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2348,27 +2376,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2384,25 +2412,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>€275.572B</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
         <v>3</v>
       </c>
@@ -2420,17 +2440,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>€275.572B</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H59" t="n">
         <v>3</v>
       </c>
@@ -2438,33 +2466,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>IPC-Fipe Inflation MoMDEC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2474,29 +2498,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMDEC</t>
+          <t>HCOB Construction PMIDEC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2511,7 +2535,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2522,13 +2546,13 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2543,7 +2567,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2554,17 +2578,17 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2575,7 +2599,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2586,23 +2610,23 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2612,23 +2636,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>48.5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>5.8%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2639,100 +2667,92 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
+          <t>S$505.7B</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>S$502.0B</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>S&amp;P Global Construction PMIDEC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>S$505.7B</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>55.2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>54.4</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>S$502.0B</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIDEC</t>
+          <t>12-Month Letras Auction</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>54.8</t>
-        </is>
-      </c>
+          <t>2.207%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2748,13 +2768,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12-Month Letras Auction</t>
+          <t>6-Month Letras Auction</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2.207%</t>
+          <t>2.552%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2766,29 +2786,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6-Month Letras Auction</t>
+          <t>Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.552%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2804,23 +2832,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashDEC</t>
+          <t>Unemployment RateNOV</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2840,27 +2868,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Core Inflation Rate YoY FlashDEC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2876,23 +2904,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashDEC</t>
+          <t>Inflation Rate MoM FlashDEC</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -2912,23 +2936,23 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashDEC</t>
+          <t>CPI FlashDEC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2939,28 +2963,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CPI FlashDEC</t>
+          <t>Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2976,27 +3004,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3012,27 +3040,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelDEC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3048,23 +3076,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelDEC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3079,30 +3107,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelDEC</t>
+          <t>30-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.747%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>3</v>
       </c>
@@ -3110,23 +3130,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>30-Year Treasury Gilt Auction</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.747%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -3138,27 +3158,31 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>PPI MoMNOV</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H81" t="n">
         <v>3</v>
       </c>
@@ -3176,19 +3200,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PPI MoMNOV</t>
+          <t>PPI YoYNOV</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3203,58 +3227,50 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PPI YoYNOV</t>
+          <t>Fiscal Year GDP Growth Prel2025-24</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fiscal Year GDP Growth Prel2025-24</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>8.2%</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>2</v>
       </c>
@@ -3262,25 +3278,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>C$-0.92B</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>C$-1B</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>C$-1.5B</t>
+        </is>
+      </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3296,27 +3324,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>C$-0.92B</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>C$-1B</t>
-        </is>
-      </c>
+          <t>C$64.22B</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>C$-1.5B</t>
+          <t>C$64.0B</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -3332,19 +3356,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>C$64.22B</t>
+          <t>C$65.14B</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>C$64.0B</t>
+          <t>C$65.5B</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3359,28 +3383,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>C$65.14B</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>C$65.5B</t>
+          <t>$-70B</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3396,23 +3424,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3432,19 +3456,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3454,7 +3478,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3464,51 +3488,55 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>Ivey PMI s.aDEC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3519,23 +3547,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aDEC</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3560,23 +3588,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>7.744M</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3596,27 +3624,23 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -3632,19 +3656,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3664,19 +3688,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3696,19 +3720,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3728,19 +3752,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -3750,7 +3774,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3760,21 +3784,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
         <v>3</v>
       </c>
@@ -3782,7 +3802,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3792,13 +3812,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3810,7 +3830,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3820,145 +3840,141 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-1.442M</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-1.442M</t>
+          <t>$9.78B</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>$4.5B</t>
+        </is>
+      </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Monthly CPI IndicatorNOV</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>$9.78B</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>$4.5B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Monthly CPI IndicatorNOV</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+          <t>$150.2B</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>$ 152.0B</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>$150.2B</t>
+          <t>2.545%</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>$ 152.0B</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>3</v>
       </c>
@@ -3967,22 +3983,30 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2.545%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+          <t>$3.266T</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>$3.25T</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>$3.25T</t>
+        </is>
+      </c>
       <c r="H107" t="n">
         <v>3</v>
       </c>
@@ -3991,30 +4015,22 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Baden Wuerttemberg CPI MoMDEC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>$3.266T</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>$3.25T</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>$3.25T</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
         <v>3</v>
       </c>
@@ -4028,13 +4044,13 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYDEC</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -4052,13 +4068,13 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYDEC</t>
+          <t>Bavaria CPI MoMDEC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4076,13 +4092,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMDEC</t>
+          <t>Bavaria CPI YoYDEC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4095,18 +4111,18 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYDEC</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -4119,22 +4135,26 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexDEC</t>
+          <t>Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>-4.9</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>-4.6</t>
+        </is>
+      </c>
       <c r="H113" t="n">
         <v>3</v>
       </c>
@@ -4143,24 +4163,28 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Business ConfidenceDEC</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-4.9</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>16.3M</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -15188,26 +15212,116 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>NAHB Housing Market IndexJAN</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H479"/>
+  <dimension ref="A1:H480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13618,7 +13618,7 @@
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -15302,26 +15302,52 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H480"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1869,7 +1869,11 @@
           <t>3-Month Bill Auction</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>4.230%</t>
@@ -1897,7 +1901,11 @@
           <t>6-Month Bill Auction</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>4.135%</t>
@@ -5978,15 +5986,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
@@ -6006,11 +6010,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
@@ -6030,11 +6038,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6054,15 +6066,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
@@ -9562,7 +9570,11 @@
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.205%</t>
+        </is>
+      </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr">
@@ -9588,7 +9600,11 @@
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
@@ -15328,26 +15344,130 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E480" t="inlineStr"/>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -1933,7 +1933,11 @@
           <t>Balance of TradeDEC</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$4.8B</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>$7.03B</t>
@@ -1969,7 +1973,11 @@
           <t>3-Year Note Auction</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.332%</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>4.117%</t>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -5994,11 +5994,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
@@ -6018,15 +6022,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
@@ -6046,15 +6046,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6074,11 +6070,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -6046,11 +6046,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6070,15 +6074,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -6046,15 +6046,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6074,11 +6070,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15456,26 +15456,52 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr"/>
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6046,11 +6046,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6070,15 +6074,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
@@ -15482,26 +15482,60 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr">
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H486"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2005,7 +2005,11 @@
           <t>BRC Retail Sales Monitor YoYDEC</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>-3.4%</t>
@@ -2041,10 +2045,14 @@
           <t>Building Permits MoM PrelNOV</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2077,10 +2085,14 @@
           <t>Private House Approvals MoM PrelNOV</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -9888,7 +9900,7 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
@@ -9918,7 +9930,7 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -15516,26 +15528,124 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Non-Oil Exports YoYDEC</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsJAN</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr">
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6006,15 +6006,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
@@ -6034,11 +6030,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
@@ -15626,26 +15626,332 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr"/>
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
+          <t>-5.7%</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>$6.52B</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate YoYQ4</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate QoQQ4</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Industrial Capacity UtilizationQ4</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>75.1%</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Unemployment RateDEC</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr">
+        <is>
           <t>2.5%</t>
         </is>
       </c>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr">
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -2149,7 +2149,11 @@
           <t>3-Month Bill Auction</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.2178%</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.1255%</t>
@@ -6006,11 +6010,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
@@ -6030,15 +6038,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
@@ -6058,15 +6062,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6086,11 +6086,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">

--- a/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2025-01-06_to_2025-01-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,11 @@
           <t>10-Year JGB Auction</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.140%</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>1.084%</t>
@@ -6010,15 +6014,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
@@ -6038,11 +6038,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
@@ -6062,11 +6066,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/04</t>
+          <t>Stock Investment by ForeignersDEC/28</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>¥-1022.6B</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
@@ -6086,15 +6094,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersDEC/28</t>
+          <t>Stock Investment by ForeignersJAN/04</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>¥-1022.6B</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
@@ -7736,7 +7740,11 @@
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.2178%</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="n">
@@ -15936,26 +15944,52 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>10:35 PM</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsNOV</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr">
         <is>
           <t>3</t>
         </is>
